--- a/同步练习.xlsx
+++ b/同步练习.xlsx
@@ -19,11 +19,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,17 +32,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,16 +56,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,24 +87,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,70 +109,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,11 +379,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,26 +427,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,30 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -483,153 +467,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,56 +974,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1">
+        <f>A1</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B9" si="0">A2</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>

--- a/同步练习.xlsx
+++ b/同步练习.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,11 +32,132 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,127 +175,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,13 +185,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,19 +329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,145 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,81 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,15 +974,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -990,8 +990,11 @@
         <f>A1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -999,8 +1002,11 @@
         <f t="shared" ref="B2:B9" si="0">A2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1008,8 +1014,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1017,8 +1026,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1026,8 +1038,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1035,8 +1050,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1044,8 +1062,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1053,8 +1074,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1062,10 +1086,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/同步练习.xlsx
+++ b/同步练习.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,6 +32,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -40,13 +63,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -60,27 +76,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,9 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,9 +123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,8 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,40 +153,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,49 +185,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,133 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,80 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +402,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,15 +974,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -993,8 +993,11 @@
       <c r="C1">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1005,8 +1008,11 @@
       <c r="C2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1017,8 +1023,11 @@
       <c r="C3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="C4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1041,6 +1053,9 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
@@ -1054,7 +1069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1065,8 +1080,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1077,8 +1095,11 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1089,23 +1110,35 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:3">
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12">
         <v>32</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="3:3">
